--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Giant Petrel_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Northern Giant Petrel_South Georgia.xlsx
@@ -4211,13 +4211,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD609A55-57C9-4B36-8E6E-4A41ABD8936A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DBE2F8-445B-4DDC-A4DD-3C057A52969E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D23B7E-1F86-4DE1-A06C-311A6BC5C7E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD79B32-A551-41B5-AB5D-931FC1B591BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{853BB144-D9B1-4D35-AD3C-3E4E61245442}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C31092-166D-4F8B-BAA8-17F29787B815}"/>
 </file>